--- a/Data_analysis_pandas/datasets/movies_db.xlsx
+++ b/Data_analysis_pandas/datasets/movies_db.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\python_pandas\3_read_write_to_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8786A3-4854-46F6-8FC7-0B7A2EAFEC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="movies" sheetId="1" r:id="rId1"/>
@@ -18,8 +12,9 @@
     <sheet name="actors" sheetId="3" r:id="rId3"/>
     <sheet name="movie_actor" sheetId="4" r:id="rId4"/>
     <sheet name="languages" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="164">
   <si>
     <t>movie_id</t>
   </si>
@@ -509,13 +504,25 @@
   </si>
   <si>
     <t>Dollars</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>MODE</t>
+  </si>
+  <si>
+    <t>IMDB_RATING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +532,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -556,10 +571,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,7 +637,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -655,7 +672,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -832,17 +849,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -1775,10 +1792,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF951C0-D968-407B-BACE-9EC26BF67B79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2487,7 +2504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6805207-AD4A-4BA5-928C-E78006753CCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -3253,7 +3270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B42F180-645C-4BD4-BB22-B680DB6CAFAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -3956,7 +3973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F2F15D-C7E5-45CD-9337-3706D6E911A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -4045,7 +4062,75 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="3">
+        <f>AVERAGE(movies!E:E)</f>
+        <v>7.9473684210526319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4">
+        <f>MEDIAN(movies!E:E)</f>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5">
+        <f>MODE(movies!E2:E40)</f>
+        <v>8.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="46297aa2-77d1-4586-9726-07d56a535ee7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100686C0266E115364AA9B96DE5BECF7DB6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c921848065db5a49d1de2391ec81580e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="631564f6-0349-4cc5-b00d-7cf3ba42f824" xmlns:ns3="46297aa2-77d1-4586-9726-07d56a535ee7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff9dd1b7eff9d7fccc1b7fb333026bb0" ns2:_="" ns3:_="">
     <xsd:import namespace="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
@@ -4274,28 +4359,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="46297aa2-77d1-4586-9726-07d56a535ee7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A11332D-01CE-4621-883D-45CFF345AEDC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED3BF70B-C5FE-4D35-9CBB-40A3F00DE780}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4310,9 +4379,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED3BF70B-C5FE-4D35-9CBB-40A3F00DE780}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A11332D-01CE-4621-883D-45CFF345AEDC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
+    <ds:schemaRef ds:uri="46297aa2-77d1-4586-9726-07d56a535ee7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>